--- a/sc_preprocessing/sequenced_mice_data_swapped_w_all.xlsx
+++ b/sc_preprocessing/sequenced_mice_data_swapped_w_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhv464/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81BF4DF-B57A-5546-B059-AF12D9B5456E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073D5373-A6FF-E04B-806F-3DC3073D90C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40920" windowHeight="17300" xr2:uid="{A64B001E-CDB3-AC44-A475-5EE3135D62FB}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="40920" windowHeight="17300" xr2:uid="{A64B001E-CDB3-AC44-A475-5EE3135D62FB}"/>
   </bookViews>
   <sheets>
     <sheet name="sequenced_mice_data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4142" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4178" uniqueCount="737">
   <si>
     <t>Hash</t>
   </si>
@@ -2232,6 +2232,24 @@
   </si>
   <si>
     <t>react</t>
+  </si>
+  <si>
+    <t>F0101</t>
+  </si>
+  <si>
+    <t>F0091</t>
+  </si>
+  <si>
+    <t>F0771</t>
+  </si>
+  <si>
+    <t>F0770</t>
+  </si>
+  <si>
+    <t>S230426</t>
+  </si>
+  <si>
+    <t>H230426</t>
   </si>
 </sst>
 </file>
@@ -2763,8 +2781,8 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T399" sqref="T398:T399"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C389" sqref="C389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20559,6 +20577,158 @@
       </c>
       <c r="P391" s="27" t="s">
         <v>607</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A392" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B392" s="33">
+        <v>140</v>
+      </c>
+      <c r="C392">
+        <v>35.31</v>
+      </c>
+      <c r="E392" t="s">
+        <v>428</v>
+      </c>
+      <c r="F392" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="G392" t="s">
+        <v>35</v>
+      </c>
+      <c r="H392" t="s">
+        <v>427</v>
+      </c>
+      <c r="L392" s="28">
+        <v>2</v>
+      </c>
+      <c r="M392" s="35" t="s">
+        <v>735</v>
+      </c>
+      <c r="N392" t="s">
+        <v>736</v>
+      </c>
+      <c r="O392" t="s">
+        <v>580</v>
+      </c>
+      <c r="P392" s="27" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A393" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B393" s="33">
+        <v>140</v>
+      </c>
+      <c r="C393">
+        <v>50.58</v>
+      </c>
+      <c r="E393" t="s">
+        <v>428</v>
+      </c>
+      <c r="F393" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="G393" t="s">
+        <v>581</v>
+      </c>
+      <c r="H393" t="s">
+        <v>427</v>
+      </c>
+      <c r="L393" s="28">
+        <v>2</v>
+      </c>
+      <c r="M393" s="35" t="s">
+        <v>735</v>
+      </c>
+      <c r="N393" t="s">
+        <v>736</v>
+      </c>
+      <c r="O393" t="s">
+        <v>580</v>
+      </c>
+      <c r="P393" s="27" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A394" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B394" s="33">
+        <v>140</v>
+      </c>
+      <c r="C394">
+        <v>49.09</v>
+      </c>
+      <c r="E394" t="s">
+        <v>428</v>
+      </c>
+      <c r="F394" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="G394" t="s">
+        <v>581</v>
+      </c>
+      <c r="H394" t="s">
+        <v>427</v>
+      </c>
+      <c r="L394" s="28">
+        <v>2</v>
+      </c>
+      <c r="M394" s="35" t="s">
+        <v>735</v>
+      </c>
+      <c r="N394" t="s">
+        <v>736</v>
+      </c>
+      <c r="O394" t="s">
+        <v>580</v>
+      </c>
+      <c r="P394" s="27" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A395" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B395" s="33">
+        <v>140</v>
+      </c>
+      <c r="C395">
+        <v>38.97</v>
+      </c>
+      <c r="E395" t="s">
+        <v>428</v>
+      </c>
+      <c r="F395" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="G395" t="s">
+        <v>35</v>
+      </c>
+      <c r="H395" t="s">
+        <v>427</v>
+      </c>
+      <c r="L395" s="28">
+        <v>2</v>
+      </c>
+      <c r="M395" s="35" t="s">
+        <v>735</v>
+      </c>
+      <c r="N395" t="s">
+        <v>736</v>
+      </c>
+      <c r="O395" t="s">
+        <v>580</v>
+      </c>
+      <c r="P395" s="27" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="1048574" spans="6:17" x14ac:dyDescent="0.2">
